--- a/4-childrens-series/how-to-train-your-dragon.xlsx
+++ b/4-childrens-series/how-to-train-your-dragon.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC75226A-F94C-EB4F-AEC0-1C273B87A37D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6351A5A4-3C2E-A04E-A1D7-9CA89EF926CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="5340" windowWidth="21600" windowHeight="18000" xr2:uid="{2257E875-BF0E-0845-8729-AB1F0207AE17}"/>
+    <workbookView xWindow="28840" yWindow="5340" windowWidth="21600" windowHeight="18000" activeTab="1" xr2:uid="{2257E875-BF0E-0845-8729-AB1F0207AE17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
+    <sheet name="Box Office" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Published Date</t>
   </si>
@@ -44,13 +45,20 @@
   <si>
     <t>Movie Closes: 2010-07-22</t>
   </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,13 +101,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B43A03-262D-B84F-8A49-0AC410038CEF}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D17" si="0">A4-14</f>
+        <f t="shared" ref="D4:D14" si="0">A4-14</f>
         <v>40265</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -652,6 +661,985 @@
         <v>5</v>
       </c>
       <c r="F18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6884EAA1-C471-0646-875A-6C977D8C529C}">
+  <dimension ref="A1:B120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>40263</v>
+      </c>
+      <c r="B2" s="6">
+        <v>12111766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>40264</v>
+      </c>
+      <c r="B3" s="6">
+        <v>17519363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>40265</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14101190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>40266</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4814037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>40267</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4803028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>40268</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4534374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5242114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>40270</v>
+      </c>
+      <c r="B9" s="6">
+        <v>11028592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>40271</v>
+      </c>
+      <c r="B10" s="6">
+        <v>11084274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>40272</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6897178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>40273</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5286039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>40274</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3827722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>40275</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3485110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>40276</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3806116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>40277</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7134315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>40278</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10523320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>40279</v>
+      </c>
+      <c r="B18" s="6">
+        <v>7205900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>40280</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1383418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>40281</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1388913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>40282</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1176225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>40283</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1264752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>40284</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4404260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40285</v>
+      </c>
+      <c r="B24" s="6">
+        <v>9111273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>40286</v>
+      </c>
+      <c r="B25" s="6">
+        <v>6117787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>40287</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1206268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>40288</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1207230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>40289</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1107422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>40290</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1223728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>40291</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3540491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>40292</v>
+      </c>
+      <c r="B31" s="6">
+        <v>6775807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>40293</v>
+      </c>
+      <c r="B32" s="6">
+        <v>5033915</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>40294</v>
+      </c>
+      <c r="B33" s="6">
+        <v>844721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>40295</v>
+      </c>
+      <c r="B34" s="6">
+        <v>860937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>40296</v>
+      </c>
+      <c r="B35" s="6">
+        <v>737763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>40297</v>
+      </c>
+      <c r="B36" s="6">
+        <v>770113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>40298</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2536353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4814495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>40300</v>
+      </c>
+      <c r="B39" s="6">
+        <v>3263441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>40301</v>
+      </c>
+      <c r="B40" s="6">
+        <v>605277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40302</v>
+      </c>
+      <c r="B41" s="6">
+        <v>582686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40303</v>
+      </c>
+      <c r="B42" s="6">
+        <v>494515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>40304</v>
+      </c>
+      <c r="B43" s="6">
+        <v>477265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>40305</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1538905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>40306</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2849450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>40307</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2292019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>40308</v>
+      </c>
+      <c r="B47" s="6">
+        <v>382066</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>40309</v>
+      </c>
+      <c r="B48" s="6">
+        <v>435246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>40310</v>
+      </c>
+      <c r="B49" s="6">
+        <v>410312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>40311</v>
+      </c>
+      <c r="B50" s="6">
+        <v>402669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>40312</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1232514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>40313</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2377660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>40314</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1393362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>40315</v>
+      </c>
+      <c r="B54" s="6">
+        <v>352917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>40316</v>
+      </c>
+      <c r="B55" s="6">
+        <v>397171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>40317</v>
+      </c>
+      <c r="B56" s="6">
+        <v>336558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>40318</v>
+      </c>
+      <c r="B57" s="6">
+        <v>355365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>40319</v>
+      </c>
+      <c r="B58" s="6">
+        <v>477210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>40320</v>
+      </c>
+      <c r="B59" s="6">
+        <v>859532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>40321</v>
+      </c>
+      <c r="B60" s="6">
+        <v>564469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>40322</v>
+      </c>
+      <c r="B61" s="6">
+        <v>190992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>40323</v>
+      </c>
+      <c r="B62" s="6">
+        <v>145658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>40324</v>
+      </c>
+      <c r="B63" s="6">
+        <v>143387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>40325</v>
+      </c>
+      <c r="B64" s="6">
+        <v>133264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>40326</v>
+      </c>
+      <c r="B65" s="6">
+        <v>285681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>40327</v>
+      </c>
+      <c r="B66" s="6">
+        <v>460913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>40328</v>
+      </c>
+      <c r="B67" s="6">
+        <v>404240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>40329</v>
+      </c>
+      <c r="B68" s="6">
+        <v>362843</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>40330</v>
+      </c>
+      <c r="B69" s="6">
+        <v>90887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>40331</v>
+      </c>
+      <c r="B70" s="6">
+        <v>87496</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>40332</v>
+      </c>
+      <c r="B71" s="6">
+        <v>98581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>40333</v>
+      </c>
+      <c r="B72" s="6">
+        <v>135097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>40334</v>
+      </c>
+      <c r="B73" s="6">
+        <v>205876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>40335</v>
+      </c>
+      <c r="B74" s="6">
+        <v>147310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>40336</v>
+      </c>
+      <c r="B75" s="6">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>40337</v>
+      </c>
+      <c r="B76" s="6">
+        <v>56136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>40338</v>
+      </c>
+      <c r="B77" s="6">
+        <v>59439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>40339</v>
+      </c>
+      <c r="B78" s="6">
+        <v>52930</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>40340</v>
+      </c>
+      <c r="B79" s="6">
+        <v>96828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>40341</v>
+      </c>
+      <c r="B80" s="6">
+        <v>143868</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>40342</v>
+      </c>
+      <c r="B81" s="6">
+        <v>89763</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>40343</v>
+      </c>
+      <c r="B82" s="6">
+        <v>41135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>40344</v>
+      </c>
+      <c r="B83" s="6">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>40345</v>
+      </c>
+      <c r="B84" s="6">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>40346</v>
+      </c>
+      <c r="B85" s="6">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>40347</v>
+      </c>
+      <c r="B86" s="6">
+        <v>50566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>40348</v>
+      </c>
+      <c r="B87" s="6">
+        <v>63286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>40349</v>
+      </c>
+      <c r="B88" s="6">
+        <v>53231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>40350</v>
+      </c>
+      <c r="B89" s="6">
+        <v>27825</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>40351</v>
+      </c>
+      <c r="B90" s="6">
+        <v>34432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>40352</v>
+      </c>
+      <c r="B91" s="6">
+        <v>62752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>40353</v>
+      </c>
+      <c r="B92" s="6">
+        <v>55722</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>40354</v>
+      </c>
+      <c r="B93" s="6">
+        <v>149137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>40355</v>
+      </c>
+      <c r="B94" s="6">
+        <v>186160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>40356</v>
+      </c>
+      <c r="B95" s="6">
+        <v>142202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>40357</v>
+      </c>
+      <c r="B96" s="6">
+        <v>89135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>40358</v>
+      </c>
+      <c r="B97" s="6">
+        <v>111068</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>40359</v>
+      </c>
+      <c r="B98" s="6">
+        <v>92083</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B99" s="6">
+        <v>100420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>40361</v>
+      </c>
+      <c r="B100" s="6">
+        <v>129383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>40362</v>
+      </c>
+      <c r="B101" s="6">
+        <v>130550</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>40363</v>
+      </c>
+      <c r="B102" s="6">
+        <v>81827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>40364</v>
+      </c>
+      <c r="B103" s="6">
+        <v>139745</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>40365</v>
+      </c>
+      <c r="B104" s="6">
+        <v>90551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>40366</v>
+      </c>
+      <c r="B105" s="6">
+        <v>88735</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>40367</v>
+      </c>
+      <c r="B106" s="6">
+        <v>100019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>40368</v>
+      </c>
+      <c r="B107" s="6">
+        <v>108458</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>40369</v>
+      </c>
+      <c r="B108" s="6">
+        <v>126526</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>40370</v>
+      </c>
+      <c r="B109" s="6">
+        <v>82939</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>40371</v>
+      </c>
+      <c r="B110" s="6">
+        <v>55886</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>40372</v>
+      </c>
+      <c r="B111" s="6">
+        <v>73065</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>40373</v>
+      </c>
+      <c r="B112" s="6">
+        <v>61617</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>40374</v>
+      </c>
+      <c r="B113" s="6">
+        <v>66070</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>40375</v>
+      </c>
+      <c r="B114" s="6">
+        <v>75190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>40376</v>
+      </c>
+      <c r="B115" s="6">
+        <v>96051</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>40377</v>
+      </c>
+      <c r="B116" s="6">
+        <v>66151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>40378</v>
+      </c>
+      <c r="B117" s="6">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>40379</v>
+      </c>
+      <c r="B118" s="6">
+        <v>52961</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>40380</v>
+      </c>
+      <c r="B119" s="6">
+        <v>46789</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>40381</v>
+      </c>
+      <c r="B120" s="6">
+        <v>50229</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-childrens-series/how-to-train-your-dragon.xlsx
+++ b/4-childrens-series/how-to-train-your-dragon.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6351A5A4-3C2E-A04E-A1D7-9CA89EF926CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C650274-1DA7-144B-944C-07B5CEA8B1EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="5340" windowWidth="21600" windowHeight="18000" activeTab="1" xr2:uid="{2257E875-BF0E-0845-8729-AB1F0207AE17}"/>
+    <workbookView xWindow="8220" yWindow="4860" windowWidth="21600" windowHeight="18000" activeTab="3" xr2:uid="{2257E875-BF0E-0845-8729-AB1F0207AE17}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
+    <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Published Date</t>
   </si>
@@ -50,6 +52,18 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Week End</t>
+  </si>
+  <si>
+    <t>Week Start</t>
+  </si>
+  <si>
+    <t>Box Office Gross</t>
+  </si>
+  <si>
+    <t>Correlation:</t>
   </si>
 </sst>
 </file>
@@ -426,7 +440,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6884EAA1-C471-0646-875A-6C977D8C529C}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1644,4 +1658,358 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFECB88A-51D4-964A-AA1E-089E6349D43D}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>40245</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40251</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A14" si="0">B3-6</f>
+        <v>40252</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40258</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>40259</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40265</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <f>SUM('Box Office'!B2:B4)</f>
+        <v>43732319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>40266</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40272</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
+        <f>SUM('Box Office'!B5:B11)</f>
+        <v>48403597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>40273</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40279</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <f>SUM('Box Office'!B12:B18)</f>
+        <v>41268522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>40280</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40286</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <f>SUM('Box Office'!B19:B25)</f>
+        <v>24846628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>40287</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40293</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM('Box Office'!B26:B32)</f>
+        <v>20094861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>40294</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40300</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <f>SUM('Box Office'!B33:B39)</f>
+        <v>13827823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>40301</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40307</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <f>SUM('Box Office'!B40:B46)</f>
+        <v>8840117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>40308</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40314</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <f>SUM('Box Office'!B47:B53)</f>
+        <v>6633829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>40315</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40321</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <f>SUM('Box Office'!B54:B60)</f>
+        <v>3343222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>40322</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40328</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <f>SUM('Box Office'!B61:B67)</f>
+        <v>1764135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>40329</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40335</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <f>SUM('Box Office'!B68:B74)</f>
+        <v>1128090</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1CA932-5ED1-CA4E-A419-734B6CC3E5BC}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>43732319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>48403597</v>
+      </c>
+      <c r="D3">
+        <f>CORREL(A2:A12,B2:B12)</f>
+        <v>-0.46380583754094451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>41268522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>24846628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20094861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>13827823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8840117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6633829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3343222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1764135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1128090</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4-childrens-series/how-to-train-your-dragon.xlsx
+++ b/4-childrens-series/how-to-train-your-dragon.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsayhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2C650274-1DA7-144B-944C-07B5CEA8B1EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4784F6B3-575E-494A-B18E-796441A8B0B9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="4860" windowWidth="21600" windowHeight="18000" activeTab="3" xr2:uid="{2257E875-BF0E-0845-8729-AB1F0207AE17}"/>
+    <workbookView xWindow="4400" yWindow="460" windowWidth="24400" windowHeight="16400" activeTab="4" xr2:uid="{2257E875-BF0E-0845-8729-AB1F0207AE17}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Box Office $ Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Rank + In Theaters Corr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Published Date</t>
   </si>
@@ -64,6 +65,15 @@
   </si>
   <si>
     <t>Correlation:</t>
+  </si>
+  <si>
+    <t>Week Starts</t>
+  </si>
+  <si>
+    <t>Week Ends</t>
+  </si>
+  <si>
+    <t>In Theaters? (1 = Y, 0 = N)</t>
   </si>
 </sst>
 </file>
@@ -440,7 +450,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1CA932-5ED1-CA4E-A419-734B6CC3E5BC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2012,4 +2022,239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D60A8A-67D9-1548-BFDA-1EF34824F455}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>40245</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40251</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>CORREL(C2:C14,D2:D14)</f>
+        <v>-0.37839373433213491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A14" si="0">B3-6</f>
+        <v>40252</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40258</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>40259</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40265</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>40266</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40272</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>40273</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40279</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>40280</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40286</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>40287</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40293</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>40294</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40300</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>40301</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40307</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>40308</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40314</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>40315</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40321</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>40322</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40328</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>40329</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40335</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>